--- a/biology/Zoologie/Iaspis/Iaspis.xlsx
+++ b/biology/Zoologie/Iaspis/Iaspis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iaspis est un genre de papillons de la famille des Lycaenidae et de la sous-famille des Theclinae présents en Amérique.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Iaspis a été créé en 1904 par l'entomologiste et lépidoptériste britannique William James Kaye (d) (1875-1967)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Iaspis a été créé en 1904 par l'entomologiste et lépidoptériste britannique William James Kaye (d) (1875-1967).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Iaspis beera (Hewitson, 1870) - Équateur
 Iaspis castitas (Druce, 1907) - Brésil, Guyane
@@ -553,7 +569,7 @@
 Iaspis talayra (Hewitson, 1868) - Mexique, Brésil
 Iaspis temesa (Hewitson, 1868) - Brésil, Guyane
 Iaspis thabena (Hewitson, 1868) - Colombie, Brésil, Guyana, Guyane
-Iaspis verania (Hewitson, 1868) - Bolivie, Équateur, Brésil, Guyane[2],[3].</t>
+Iaspis verania (Hewitson, 1868) - Bolivie, Équateur, Brésil, Guyane,.</t>
         </is>
       </c>
     </row>
@@ -581,9 +597,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Iaspis sont présentes en Amérique centrale et Amérique du Sud[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Iaspis sont présentes en Amérique centrale et Amérique du Sud.
 </t>
         </is>
       </c>
